--- a/HW2/Heads_BoxModel_hetero3.xlsx
+++ b/HW2/Heads_BoxModel_hetero3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalia\OneDrive\Documents\SPRING21\582-GWMod\hw-PortilloD\HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{68D03751-AAFF-42DE-B1B7-61A1D8E6143B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2410060-5A7F-4959-A7E5-FC8ABA03E55F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="570" windowWidth="22860" windowHeight="14370" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="4410" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoxModel_Manual_update" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="K_eachCell" sheetId="3" r:id="rId3"/>
     <sheet name="flux" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="159">
   <si>
     <t xml:space="preserve">                                  MODFLOW-2005     </t>
   </si>
@@ -498,11 +498,14 @@
   <si>
     <t>q_eff</t>
   </si>
+  <si>
+    <t>pcg file can conrol num of iterations</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1093,26 +1096,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -8985,7 +8968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A273"/>
   <sheetViews>
     <sheetView topLeftCell="A139" workbookViewId="0">
@@ -10080,7 +10063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView topLeftCell="D13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -12173,7 +12156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -14304,11 +14287,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16927,6 +16910,11 @@
         <v>0.1851851851851852</v>
       </c>
     </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
